--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1072.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1072.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.060796920565092</v>
+        <v>1.058149527200163</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.36613941769692</v>
+        <v>1.358144842937276</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.521594012929025</v>
+        <v>0.5225864244761617</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9489287057166049</v>
+        <v>0.9422057943132294</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.521594012929025</v>
+        <v>0.5225864244761617</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9489287057166049</v>
+        <v>0.9422057943132294</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.521594012929025</v>
+        <v>0.5225864244761617</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9489287057166049</v>
+        <v>0.9422057943132294</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9337619583574825</v>
+        <v>0.927016071693322</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9337619583574825</v>
+        <v>0.927016071693322</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.145446213154568</v>
+        <v>1.141216842667423</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.01866813306424182</v>
+        <v>0.01992879657135084</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.047729227420123</v>
+        <v>1.044199369600218</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.7398896404930491</v>
+        <v>0.7330994236638355</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9489287057166049</v>
+        <v>0.9422057943132294</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9559185753659436</v>
+        <v>0.9493314189689749</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.4</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9629084450152823</v>
+        <v>0.9564570436247204</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9337619583574825</v>
+        <v>0.927016071693322</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.8415507454409193</v>
+        <v>0.8336220576697324</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.02489084408565576</v>
+        <v>0.02657172876180111</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>1.034661534275154</v>
+        <v>1.030249212000272</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.7174888185265071</v>
+        <v>0.7107416813255276</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9489287057166049</v>
+        <v>0.9422057943132294</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8770270645160227</v>
+        <v>0.8694795623401348</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.8051254233154407</v>
+        <v>0.7967533303670403</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9337619583574825</v>
+        <v>0.927016071693322</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.8051254233154398</v>
+        <v>0.7967533303670405</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.0311135551070697</v>
+        <v>0.03321466095225139</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>1.023196041307989</v>
+        <v>1.017871311693213</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.03657331366286218</v>
+        <v>0.03910889919370839</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.9994159986431393</v>
+        <v>0.9934090034332609</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.04789714350326702</v>
+        <v>0.05075761741273295</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.9629084450152823</v>
+        <v>0.9564570436247204</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.0652816928498656</v>
+        <v>0.06835378875013319</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.9179114630680296</v>
+        <v>0.9111743110622489</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.08670882711046216</v>
+        <v>0.08991699473226249</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.864620018069403</v>
+        <v>0.8577521273851479</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.9277975326407664</v>
+        <v>0.9239425697487088</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1120857056812367</v>
+        <v>0.1153561298165963</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.8046808767934678</v>
+        <v>0.7978064835950869</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.1406281539078725</v>
+        <v>0.1439016744785301</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.7398896404930491</v>
+        <v>0.7330994236638355</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>18.55595065281533</v>
+        <v>18.47885139497417</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.1714811235747386</v>
+        <v>0.1747145601600784</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.7174888185265071</v>
+        <v>0.7107416813255276</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.8777975326407663</v>
+        <v>0.8739425697487088</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.9</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.9</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.1166758316515114</v>
+        <v>0.1245549785709428</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.1166758316515114</v>
+        <v>0.1245549785709428</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.9</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.9</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.1166758316515114</v>
+        <v>0.1245549785709427</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2333516633030228</v>
+        <v>0.2491099571418854</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.2333516633030228</v>
+        <v>0.2491099571418853</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>0.4667033266060455</v>
+        <v>0.4982199142837707</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>0.4094818916844367</v>
+        <v>0.4420678681092747</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>0.8761852182904822</v>
+        <v>0.9402877823930454</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>1.698574476060726</v>
+        <v>1.747307732853685</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>2.574759694351208</v>
+        <v>2.687595515246731</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>5.215364803979575</v>
+        <v>5.278851401220074</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>7.790124498330783</v>
+        <v>7.966446916466804</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>12.85628055635794</v>
+        <v>12.93792358927758</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>20.64640505468872</v>
+        <v>20.90437050574439</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>30.45225428492946</v>
+        <v>30.52696210120052</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>51.09865933961819</v>
+        <v>51.43133260694491</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>68.50187574392598</v>
+        <v>68.50930718864117</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>119.6005350835442</v>
+        <v>119.9406397955861</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>148.0942544009571</v>
+        <v>147.901851271432</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>267.6947894845013</v>
+        <v>267.8424910670181</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>76.80281817100115</v>
+        <v>76.6551165884843</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
